--- a/model/SFC/CV/Steering_Warning_Lamp/Steering_Warning_Lamp[CV350].xlsx
+++ b/model/SFC/CV/Steering_Warning_Lamp/Steering_Warning_Lamp[CV350].xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\sy\sfc-docker\SFC-Docker\ccos.core.sfc\tc_generator\tc_creator\model\SFC\CV\Steering_Warning_Lamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E89F056-58E2-42EE-B64A-2302D376B35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{7E89F056-58E2-42EE-B64A-2302D376B35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F4977E-FD04-4E21-8392-E358AD27F3E6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,23 @@
     <sheet name="Configs" sheetId="9" r:id="rId9"/>
     <sheet name="DependentOn" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="176">
   <si>
     <t>test</t>
   </si>
@@ -560,6 +571,9 @@
   <si>
     <t>ConfigRAS==OFF</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Not_Trigger]SFC.Private.IGNElapsed.ElapsedOn0ms</t>
   </si>
 </sst>
 </file>
@@ -589,12 +603,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -633,16 +653,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -951,9 +978,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -999,9 +1026,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
@@ -1022,17 +1049,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89:F101"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="100.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.0625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.38671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.8046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.40625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,11 +1107,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1082,14 +1119,14 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
@@ -1104,14 +1141,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" t="s">
         <v>31</v>
       </c>
@@ -1119,14 +1156,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" t="s">
         <v>32</v>
       </c>
@@ -1134,14 +1171,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" t="s">
         <v>34</v>
       </c>
@@ -1149,31 +1186,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
       <c r="H7" t="s">
         <v>31</v>
       </c>
@@ -1181,14 +1218,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>32</v>
       </c>
@@ -1196,14 +1233,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
       <c r="H9" t="s">
         <v>34</v>
       </c>
@@ -1211,20 +1248,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I10" t="s">
         <v>28</v>
@@ -1239,14 +1276,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" t="s">
         <v>31</v>
       </c>
@@ -1254,14 +1291,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" t="s">
         <v>32</v>
       </c>
@@ -1269,14 +1306,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" t="s">
         <v>34</v>
       </c>
@@ -1284,20 +1321,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I14" t="s">
         <v>28</v>
@@ -1312,14 +1349,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
       <c r="H15" t="s">
         <v>31</v>
       </c>
@@ -1327,14 +1364,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
       <c r="H16" t="s">
         <v>32</v>
       </c>
@@ -1342,31 +1379,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
       <c r="H18" t="s">
         <v>31</v>
       </c>
@@ -1374,14 +1411,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
       <c r="H19" t="s">
         <v>32</v>
       </c>
@@ -1389,14 +1426,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
       <c r="H20" t="s">
         <v>34</v>
       </c>
@@ -1404,31 +1441,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
       <c r="H22" t="s">
         <v>31</v>
       </c>
@@ -1436,14 +1473,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
       <c r="H23" t="s">
         <v>32</v>
       </c>
@@ -1451,14 +1488,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
       <c r="H24" t="s">
         <v>34</v>
       </c>
@@ -1466,31 +1503,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3" t="s">
         <v>170</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
       <c r="H26" t="s">
         <v>31</v>
       </c>
@@ -1498,26 +1535,26 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I27" t="s">
         <v>28</v>
@@ -1532,14 +1569,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" t="s">
         <v>50</v>
       </c>
@@ -1547,14 +1584,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
       <c r="H29" t="s">
         <v>51</v>
       </c>
@@ -1562,14 +1599,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" t="s">
         <v>52</v>
       </c>
@@ -1577,31 +1614,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" t="s">
         <v>50</v>
       </c>
@@ -1609,14 +1646,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="H33" t="s">
         <v>51</v>
       </c>
@@ -1624,14 +1661,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="H34" t="s">
         <v>52</v>
       </c>
@@ -1639,20 +1676,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H35" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I35" t="s">
         <v>28</v>
@@ -1667,14 +1704,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
       <c r="H36" t="s">
         <v>50</v>
       </c>
@@ -1682,14 +1719,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
       <c r="H37" t="s">
         <v>51</v>
       </c>
@@ -1697,14 +1734,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
       <c r="H38" t="s">
         <v>52</v>
       </c>
@@ -1712,20 +1749,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H39" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I39" t="s">
         <v>28</v>
@@ -1740,14 +1777,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="2"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
       <c r="H40" t="s">
         <v>50</v>
       </c>
@@ -1755,14 +1792,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="2"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
       <c r="H41" t="s">
         <v>51</v>
       </c>
@@ -1770,31 +1807,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="2" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H42" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="2"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
       <c r="H43" t="s">
         <v>50</v>
       </c>
@@ -1802,14 +1839,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="2"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
       <c r="H44" t="s">
         <v>51</v>
       </c>
@@ -1817,14 +1854,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="2"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
       <c r="H45" t="s">
         <v>52</v>
       </c>
@@ -1832,31 +1869,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="2" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H46" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="2"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
       <c r="H47" t="s">
         <v>50</v>
       </c>
@@ -1864,14 +1901,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="2"/>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
       <c r="H48" t="s">
         <v>51</v>
       </c>
@@ -1879,14 +1916,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="2"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
       <c r="H49" t="s">
         <v>52</v>
       </c>
@@ -1894,31 +1931,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="2" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3" t="s">
         <v>171</v>
       </c>
       <c r="H50" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I50" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="2"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
       <c r="H51" t="s">
         <v>50</v>
       </c>
@@ -1926,26 +1963,26 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="3" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="2" t="s">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H52" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I52" t="s">
         <v>28</v>
@@ -1960,14 +1997,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
       <c r="H53" t="s">
         <v>61</v>
       </c>
@@ -1975,14 +2012,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
       <c r="H54" t="s">
         <v>62</v>
       </c>
@@ -1990,14 +2027,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
       <c r="H55" t="s">
         <v>63</v>
       </c>
@@ -2005,31 +2042,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I56" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
       <c r="H57" t="s">
         <v>61</v>
       </c>
@@ -2037,14 +2074,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
       <c r="H58" t="s">
         <v>62</v>
       </c>
@@ -2052,14 +2089,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
       <c r="H59" t="s">
         <v>63</v>
       </c>
@@ -2067,20 +2104,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="2" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H60" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I60" t="s">
         <v>28</v>
@@ -2095,14 +2132,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
       <c r="H61" t="s">
         <v>61</v>
       </c>
@@ -2110,14 +2147,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
       <c r="H62" t="s">
         <v>62</v>
       </c>
@@ -2125,14 +2162,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
       <c r="H63" t="s">
         <v>63</v>
       </c>
@@ -2140,20 +2177,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H64" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I64" t="s">
         <v>28</v>
@@ -2168,14 +2205,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="2"/>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="3"/>
       <c r="H65" t="s">
         <v>61</v>
       </c>
@@ -2183,14 +2220,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="2"/>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="3"/>
       <c r="H66" t="s">
         <v>62</v>
       </c>
@@ -2198,31 +2235,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="2" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="3" t="s">
         <v>67</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I67" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="2"/>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3"/>
       <c r="H68" t="s">
         <v>61</v>
       </c>
@@ -2230,14 +2267,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="2"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3"/>
       <c r="H69" t="s">
         <v>62</v>
       </c>
@@ -2245,14 +2282,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="2"/>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="3"/>
       <c r="H70" t="s">
         <v>63</v>
       </c>
@@ -2260,31 +2297,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="2" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="3" t="s">
         <v>68</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I71" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="2"/>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="3"/>
       <c r="H72" t="s">
         <v>61</v>
       </c>
@@ -2292,14 +2329,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="2"/>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="3"/>
       <c r="H73" t="s">
         <v>62</v>
       </c>
@@ -2307,14 +2344,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="2"/>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="3"/>
       <c r="H74" t="s">
         <v>63</v>
       </c>
@@ -2322,31 +2359,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="2" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="3" t="s">
         <v>173</v>
       </c>
       <c r="H75" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I75" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="2"/>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
       <c r="H76" t="s">
         <v>61</v>
       </c>
@@ -2354,26 +2391,26 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="2" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="3" t="s">
         <v>70</v>
       </c>
       <c r="H77" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I77" t="s">
         <v>28</v>
@@ -2388,14 +2425,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
       <c r="H78" t="s">
         <v>72</v>
       </c>
@@ -2403,14 +2440,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
       <c r="H79" t="s">
         <v>73</v>
       </c>
@@ -2418,14 +2455,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
       <c r="H80" t="s">
         <v>74</v>
       </c>
@@ -2433,31 +2470,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H81" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I81" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
       <c r="H82" t="s">
         <v>72</v>
       </c>
@@ -2465,14 +2502,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
       <c r="H83" t="s">
         <v>73</v>
       </c>
@@ -2480,14 +2517,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
       <c r="H84" t="s">
         <v>74</v>
       </c>
@@ -2495,20 +2532,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="2" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="3" t="s">
         <v>76</v>
       </c>
       <c r="H85" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I85" t="s">
         <v>28</v>
@@ -2523,14 +2560,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
       <c r="H86" t="s">
         <v>72</v>
       </c>
@@ -2538,14 +2575,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
       <c r="H87" t="s">
         <v>73</v>
       </c>
@@ -2553,14 +2590,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
       <c r="H88" t="s">
         <v>74</v>
       </c>
@@ -2568,20 +2605,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H89" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I89" t="s">
         <v>28</v>
@@ -2596,14 +2633,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="2"/>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="3"/>
       <c r="H90" t="s">
         <v>72</v>
       </c>
@@ -2611,14 +2648,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="2"/>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="3"/>
       <c r="H91" t="s">
         <v>73</v>
       </c>
@@ -2626,31 +2663,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="2" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H92" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I92" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="2"/>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="3"/>
       <c r="H93" t="s">
         <v>72</v>
       </c>
@@ -2658,14 +2695,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="2"/>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="3"/>
       <c r="H94" t="s">
         <v>73</v>
       </c>
@@ -2673,14 +2710,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="2"/>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="3"/>
       <c r="H95" t="s">
         <v>74</v>
       </c>
@@ -2688,31 +2725,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="2" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="3" t="s">
         <v>79</v>
       </c>
       <c r="H96" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I96" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="2"/>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="3"/>
       <c r="H97" t="s">
         <v>72</v>
       </c>
@@ -2720,14 +2757,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="2"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="3"/>
       <c r="H98" t="s">
         <v>73</v>
       </c>
@@ -2735,14 +2772,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="2"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="3"/>
       <c r="H99" t="s">
         <v>74</v>
       </c>
@@ -2750,31 +2787,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="2" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="3" t="s">
         <v>174</v>
       </c>
       <c r="H100" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I100" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="2"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="3"/>
       <c r="H101" t="s">
         <v>72</v>
       </c>
@@ -2784,13 +2821,35 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B77:B101"/>
-    <mergeCell ref="A77:A101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="F89:F101"/>
-    <mergeCell ref="E77:E101"/>
-    <mergeCell ref="D77:D101"/>
-    <mergeCell ref="C77:C101"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="B2:B26"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="C27:C51"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="F27:F34"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C2:C26"/>
+    <mergeCell ref="F52:F59"/>
+    <mergeCell ref="D2:D26"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F26"/>
+    <mergeCell ref="E2:E26"/>
     <mergeCell ref="B27:B51"/>
     <mergeCell ref="A27:A51"/>
     <mergeCell ref="G75:G76"/>
@@ -2802,43 +2861,21 @@
     <mergeCell ref="A52:A76"/>
     <mergeCell ref="G39:G41"/>
     <mergeCell ref="G46:G49"/>
-    <mergeCell ref="G81:G84"/>
     <mergeCell ref="G60:G63"/>
-    <mergeCell ref="F77:F84"/>
-    <mergeCell ref="G96:G99"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="F39:F51"/>
     <mergeCell ref="E27:E51"/>
     <mergeCell ref="D27:D51"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F26"/>
-    <mergeCell ref="E2:E26"/>
-    <mergeCell ref="D2:D26"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="C2:C26"/>
-    <mergeCell ref="B2:B26"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="C27:C51"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="F27:F34"/>
-    <mergeCell ref="F52:F59"/>
-    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="B77:B101"/>
+    <mergeCell ref="A77:A101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="F89:F101"/>
+    <mergeCell ref="E77:E101"/>
+    <mergeCell ref="D77:D101"/>
+    <mergeCell ref="C77:C101"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="F77:F84"/>
+    <mergeCell ref="G96:G99"/>
     <mergeCell ref="G77:G80"/>
     <mergeCell ref="G89:G91"/>
     <mergeCell ref="G92:G95"/>
@@ -2856,9 +2893,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2908,9 +2945,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2948,22 +2985,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>81</v>
       </c>
       <c r="H2" t="s">
@@ -2982,23 +3019,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>85</v>
       </c>
       <c r="H4" t="s">
@@ -3008,21 +3045,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
         <v>41</v>
       </c>
@@ -3039,22 +3076,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>89</v>
       </c>
       <c r="H7" t="s">
@@ -3073,21 +3110,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" t="s">
         <v>41</v>
       </c>
@@ -3104,22 +3141,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H10" t="s">
@@ -3138,21 +3175,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>41</v>
       </c>
@@ -3169,22 +3206,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>97</v>
       </c>
       <c r="H13" t="s">
@@ -3203,14 +3240,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" t="s">
         <v>82</v>
       </c>
@@ -3218,14 +3255,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" t="s">
         <v>86</v>
       </c>
@@ -3233,14 +3270,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>101</v>
       </c>
       <c r="H16" t="s">
@@ -3250,14 +3287,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" t="s">
         <v>82</v>
       </c>
@@ -3265,14 +3302,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" t="s">
         <v>86</v>
       </c>
@@ -3280,14 +3317,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H19" t="s">
@@ -3297,14 +3334,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" t="s">
         <v>104</v>
       </c>
@@ -3312,14 +3349,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" t="s">
         <v>82</v>
       </c>
@@ -3327,14 +3364,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" t="s">
         <v>86</v>
       </c>
@@ -3342,14 +3379,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>105</v>
       </c>
       <c r="H23" t="s">
@@ -3359,14 +3396,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" t="s">
         <v>106</v>
       </c>
@@ -3374,14 +3411,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="H25" t="s">
         <v>82</v>
       </c>
@@ -3389,14 +3426,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" t="s">
         <v>86</v>
       </c>
@@ -3404,12 +3441,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" t="s">
         <v>41</v>
       </c>
@@ -3426,22 +3463,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>108</v>
       </c>
       <c r="H28" t="s">
@@ -3460,14 +3497,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
       <c r="H29" t="s">
         <v>90</v>
       </c>
@@ -3475,12 +3512,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" t="s">
         <v>41</v>
       </c>
@@ -3497,22 +3534,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="3" t="s">
         <v>112</v>
       </c>
       <c r="H31" t="s">
@@ -3531,14 +3568,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" t="s">
         <v>94</v>
       </c>
@@ -3546,12 +3583,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" t="s">
         <v>41</v>
       </c>
@@ -3573,11 +3610,38 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="F13:F26"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E13:E27"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="D13:D27"/>
+    <mergeCell ref="A13:A27"/>
+    <mergeCell ref="C13:C27"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="B13:B27"/>
     <mergeCell ref="B31:B33"/>
@@ -3587,38 +3651,11 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A13:A27"/>
-    <mergeCell ref="C13:C27"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="D13:D27"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F13:F26"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E13:E27"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3631,9 +3668,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3671,22 +3708,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>117</v>
       </c>
       <c r="H2" t="s">
@@ -3705,14 +3742,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="J3" t="s">
         <v>120</v>
       </c>
@@ -3723,14 +3760,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>121</v>
       </c>
       <c r="H4" t="s">
@@ -3746,14 +3783,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="J5" t="s">
         <v>125</v>
       </c>
@@ -3761,14 +3798,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>126</v>
       </c>
       <c r="H6" t="s">
@@ -3784,21 +3821,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -3815,22 +3852,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>131</v>
       </c>
       <c r="H9" t="s">
@@ -3849,14 +3886,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="J10" t="s">
         <v>134</v>
       </c>
@@ -3867,14 +3904,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>135</v>
       </c>
       <c r="H11" t="s">
@@ -3890,14 +3927,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="J12" t="s">
         <v>139</v>
       </c>
@@ -3905,14 +3942,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>140</v>
       </c>
       <c r="H13" t="s">
@@ -3928,21 +3965,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>41</v>
       </c>
@@ -3959,22 +3996,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>144</v>
       </c>
       <c r="H16" t="s">
@@ -3993,14 +4030,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" t="s">
         <v>146</v>
       </c>
@@ -4017,13 +4054,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="J18" t="s">
         <v>149</v>
       </c>
@@ -4031,13 +4068,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="J19" t="s">
         <v>151</v>
       </c>
@@ -4045,13 +4082,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="J20" t="s">
         <v>152</v>
       </c>
@@ -4059,12 +4096,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" t="s">
         <v>41</v>
       </c>
@@ -4081,22 +4118,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>154</v>
       </c>
       <c r="H22" t="s">
@@ -4115,14 +4152,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" t="s">
         <v>146</v>
       </c>
@@ -4139,13 +4176,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="J24" t="s">
         <v>149</v>
       </c>
@@ -4153,13 +4190,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="J25" t="s">
         <v>151</v>
       </c>
@@ -4167,13 +4204,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="J26" t="s">
         <v>152</v>
       </c>
@@ -4181,12 +4218,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" t="s">
         <v>41</v>
       </c>
@@ -4203,22 +4240,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>157</v>
       </c>
       <c r="H28" t="s">
@@ -4237,14 +4274,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
       <c r="H29" t="s">
         <v>159</v>
       </c>
@@ -4261,14 +4298,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="J30" t="s">
         <v>161</v>
       </c>
@@ -4276,14 +4313,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
       <c r="J31" t="s">
         <v>162</v>
       </c>
@@ -4291,14 +4328,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="J32" t="s">
         <v>163</v>
       </c>
@@ -4306,12 +4343,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" t="s">
         <v>41</v>
       </c>
@@ -4330,6 +4367,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="E22:E27"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G28:G32"/>
     <mergeCell ref="A16:A21"/>
@@ -4346,29 +4406,6 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4381,9 +4418,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4433,9 +4470,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4485,9 +4522,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4537,9 +4574,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
